--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Plg-F3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Plg-F3.xlsx
@@ -540,10 +540,10 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H2">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4264516666666667</v>
+        <v>0.1564773333333333</v>
       </c>
       <c r="N2">
-        <v>1.279355</v>
+        <v>0.469432</v>
       </c>
       <c r="O2">
-        <v>0.00694733498901017</v>
+        <v>0.002686289672660777</v>
       </c>
       <c r="P2">
-        <v>0.007062248329551709</v>
+        <v>0.002698380613520143</v>
       </c>
       <c r="Q2">
-        <v>0.01045958002833333</v>
+        <v>0.005410751470666666</v>
       </c>
       <c r="R2">
-        <v>0.06275748017</v>
+        <v>0.032464508824</v>
       </c>
       <c r="S2">
-        <v>0.00694733498901017</v>
+        <v>0.002686289672660777</v>
       </c>
       <c r="T2">
-        <v>0.007062248329551709</v>
+        <v>0.002698380613520143</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H3">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>170.848841</v>
       </c>
       <c r="O3">
-        <v>0.9277676101716374</v>
+        <v>0.9776697736080268</v>
       </c>
       <c r="P3">
-        <v>0.9431134766801204</v>
+        <v>0.9820702474411319</v>
       </c>
       <c r="Q3">
-        <v>1.396803174402333</v>
+        <v>1.969232216172833</v>
       </c>
       <c r="R3">
-        <v>8.380819046414</v>
+        <v>11.815393297037</v>
       </c>
       <c r="S3">
-        <v>0.9277676101716374</v>
+        <v>0.9776697736080268</v>
       </c>
       <c r="T3">
-        <v>0.9431134766801204</v>
+        <v>0.9820702474411319</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H4">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3517460000000001</v>
+        <v>0.111859</v>
       </c>
       <c r="N4">
-        <v>1.055238</v>
+        <v>0.335577</v>
       </c>
       <c r="O4">
-        <v>0.005730303066102149</v>
+        <v>0.001920314400131405</v>
       </c>
       <c r="P4">
-        <v>0.005825085924375554</v>
+        <v>0.001928957700248916</v>
       </c>
       <c r="Q4">
-        <v>0.008627274142000001</v>
+        <v>0.0038679164315</v>
       </c>
       <c r="R4">
-        <v>0.05176364485200001</v>
+        <v>0.023207498589</v>
       </c>
       <c r="S4">
-        <v>0.005730303066102149</v>
+        <v>0.001920314400131405</v>
       </c>
       <c r="T4">
-        <v>0.005825085924375554</v>
+        <v>0.001928957700248916</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H5">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.9964035</v>
+        <v>0.7830269999999999</v>
       </c>
       <c r="N5">
-        <v>5.992807</v>
+        <v>1.566054</v>
       </c>
       <c r="O5">
-        <v>0.04881448591690938</v>
+        <v>0.0134424411427931</v>
       </c>
       <c r="P5">
-        <v>0.03308127237950044</v>
+        <v>0.009001963550260048</v>
       </c>
       <c r="Q5">
-        <v>0.0734927886445</v>
+        <v>0.0270758991195</v>
       </c>
       <c r="R5">
-        <v>0.293971154578</v>
+        <v>0.108303596478</v>
       </c>
       <c r="S5">
-        <v>0.04881448591690938</v>
+        <v>0.0134424411427931</v>
       </c>
       <c r="T5">
-        <v>0.03308127237950044</v>
+        <v>0.009001963550260048</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H6">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.6592749999999999</v>
+        <v>0.2493803333333333</v>
       </c>
       <c r="N6">
-        <v>1.977825</v>
+        <v>0.7481409999999999</v>
       </c>
       <c r="O6">
-        <v>0.01074026585634092</v>
+        <v>0.004281181176387862</v>
       </c>
       <c r="P6">
-        <v>0.01091791668645185</v>
+        <v>0.004300450694838813</v>
       </c>
       <c r="Q6">
-        <v>0.016170037925</v>
+        <v>0.008623197856166666</v>
       </c>
       <c r="R6">
-        <v>0.09702022755</v>
+        <v>0.05173918713699999</v>
       </c>
       <c r="S6">
-        <v>0.01074026585634092</v>
+        <v>0.004281181176387862</v>
       </c>
       <c r="T6">
-        <v>0.01091791668645185</v>
+        <v>0.004300450694838813</v>
       </c>
     </row>
   </sheetData>
